--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_19.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>134659.8068945974</v>
+        <v>108192.5319438355</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728811</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>327.5210542559882</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>89.13491008362041</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>52.10844059186253</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>63.63976260651663</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>234.4053629237962</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>102.0504834456178</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>278.0825795607541</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>146.1695367900864</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>99.54568813120039</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.5550410134733</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>43.31785343913998</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228958</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>94.63926978364057</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>206.7923317625754</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1935,7 +1935,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
         <v>104.3883541553076</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>115.2373148110768</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>376.1848636439244</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>311.4936872159398</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="23">
@@ -2318,10 +2318,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>355.5467565582665</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V25" t="n">
-        <v>94.63926978364057</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>123.549265028247</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>11.6788446020113</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>368.0745826192874</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X31" t="n">
-        <v>128.7835007017903</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7835007017903</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,19 +3272,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>254.5907626076392</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>81.25819606329408</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>367.2711110280686</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>41.75100837039722</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>35.85115782931089</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>279.4316181576252</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U43" t="n">
-        <v>83.59830597394826</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4177,25 +4177,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>54.47555601903409</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1219.679656148628</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C2" t="n">
-        <v>850.7171392082162</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D2" t="n">
-        <v>850.7171392082162</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E2" t="n">
-        <v>464.928886609972</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>711.9670495176831</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1219.679656148628</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>1219.679656148628</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.8463957150033</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>494.9102127870964</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>494.9102127870964</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>494.9102127870964</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4528,10 +4528,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>663.8463957150033</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>663.8463957150033</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>892.8693763960225</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="C5" t="n">
-        <v>892.8693763960225</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>534.603677789272</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>534.603677789272</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2594.067794608507</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2594.067794608507</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2340.306009246599</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2009.243121903028</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1656.474466632914</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1283.008708371834</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>892.8693763960225</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="6">
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073964</v>
@@ -4750,16 +4750,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
         <v>53.94298182036445</v>
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1426.30362575193</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="C8" t="n">
-        <v>1426.30362575193</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="D8" t="n">
-        <v>1068.037927145179</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="E8" t="n">
-        <v>682.249674546935</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>682.249674546935</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4814,7 +4814,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332392</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988821</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.908715988821</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.442957727741</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1426.30362575193</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4908,16 +4908,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>598.1608649275305</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>598.1608649275305</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>598.1608649275305</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>598.1608649275305</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>598.1608649275305</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>598.1608649275305</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>598.1608649275305</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>598.1608649275305</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.944160717209</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.981643776797</v>
+        <v>1855.790121687965</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.981643776797</v>
+        <v>1497.524423081215</v>
       </c>
       <c r="E11" t="n">
-        <v>792.1933911785532</v>
+        <v>1111.73617048297</v>
       </c>
       <c r="F11" t="n">
-        <v>381.2074863889456</v>
+        <v>700.7502656933627</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>282.7864575915496</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5039,19 +5039,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5069,22 +5069,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757143</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.544000781331</v>
+        <v>2224.752638628377</v>
       </c>
     </row>
     <row r="12">
@@ -5094,73 +5094,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.69838933464726</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5239,10 +5239,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>279.346854164887</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.94416071721</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776798</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776798</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785536</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889461</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5279,49 +5279,49 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5364,16 +5364,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2291.509718890064</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2627.754532504893</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5391,7 +5391,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5440,37 +5440,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T16" t="n">
-        <v>632.5337622027571</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U16" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
         <v>53.94298182036445</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2476.569858826099</v>
+        <v>743.4848209837926</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>743.4848209837926</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>743.4848209837926</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>743.4848209837926</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>743.4848209837926</v>
       </c>
       <c r="G17" t="n">
         <v>534.603677789272</v>
@@ -5516,10 +5516,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5543,22 +5543,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y17" t="n">
-        <v>2697.149091018222</v>
+        <v>1130.084661047914</v>
       </c>
     </row>
     <row r="18">
@@ -5574,16 +5574,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5595,13 +5595,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5677,46 +5677,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S19" t="n">
-        <v>365.6939024587812</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T19" t="n">
-        <v>138.3857151273829</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="U19" t="n">
-        <v>138.3857151273829</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="V19" t="n">
-        <v>138.3857151273829</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W19" t="n">
-        <v>138.3857151273829</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X19" t="n">
-        <v>138.3857151273829</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y19" t="n">
-        <v>138.3857151273829</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.94416071721</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776798</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D20" t="n">
-        <v>819.7159451700475</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E20" t="n">
-        <v>433.9276925718032</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036425</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5850,22 +5850,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2567.064746875</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1937.083492693021</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1568.12097575261</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>1209.855277145859</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>824.0670245476149</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>413.0811197580073</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5987,52 +5987,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
         <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>2323.683332757143</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6069,13 +6069,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6087,22 +6087,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6151,34 +6151,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610024</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
         <v>343.360151857325</v>
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1422.14692331494</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C26" t="n">
-        <v>1422.14692331494</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.14692331494</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E26" t="n">
-        <v>1036.358670716696</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F26" t="n">
-        <v>625.3727659270879</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
@@ -6236,40 +6236,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2572.351853615953</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2572.351853615953</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2572.351853615953</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>2198.886095354873</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>1808.746763379062</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65.7397945496688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>65.7397945496688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>65.7397945496688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>65.7397945496688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>65.7397945496688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>286.5323736931989</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5323736931989</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X28" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>65.7397945496688</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1208.982837814967</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.982837814967</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082162</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6461,13 +6461,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6485,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>1970.914677487028</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1580.775345511217</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6540,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6625,43 +6625,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>184.027325963587</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y31" t="n">
         <v>53.94298182036445</v>
@@ -6698,7 +6698,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
@@ -6710,7 +6710,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6777,25 +6777,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C34" t="n">
         <v>53.94298182036445</v>
@@ -6862,46 +6862,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>184.027325963587</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1405.321187657107</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1036.358670716696</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D35" t="n">
-        <v>1036.358670716696</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E35" t="n">
-        <v>1036.358670716696</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>1405.321187657107</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1405.321187657107</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1405.321187657107</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036445</v>
@@ -7099,46 +7099,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>210.7222632714565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1194.175505447095</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C38" t="n">
-        <v>1194.175505447095</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D38" t="n">
-        <v>835.9098068403443</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E38" t="n">
-        <v>835.9098068403443</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F38" t="n">
-        <v>424.9239020507368</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7172,13 +7172,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533138</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>1970.914677487028</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y38" t="n">
-        <v>1580.775345511217</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="39">
@@ -7263,10 +7263,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
         <v>2525.076107152626</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>728.1289842064344</v>
+        <v>2228.176179630498</v>
       </c>
       <c r="C40" t="n">
-        <v>559.1928012785276</v>
+        <v>2228.176179630498</v>
       </c>
       <c r="D40" t="n">
-        <v>559.1928012785276</v>
+        <v>2228.176179630498</v>
       </c>
       <c r="E40" t="n">
-        <v>559.1928012785276</v>
+        <v>2228.176179630498</v>
       </c>
       <c r="F40" t="n">
-        <v>517.0200655508536</v>
+        <v>2228.176179630498</v>
       </c>
       <c r="G40" t="n">
-        <v>348.0202652891861</v>
+        <v>2059.176379368831</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064344</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064344</v>
+        <v>2228.176179630498</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064344</v>
+        <v>2228.176179630498</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064344</v>
+        <v>2228.176179630498</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064344</v>
+        <v>2228.176179630498</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1112.426648284105</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>830.1724885289282</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D41" t="n">
-        <v>471.9067899221776</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E41" t="n">
-        <v>471.9067899221776</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7412,16 +7412,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7439,22 +7439,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>1485.892406545185</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>1112.426648284105</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1112.426648284105</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7506,31 +7506,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7573,31 +7573,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>365.6939024587812</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>138.3857151273829</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U43" t="n">
         <v>53.94298182036445</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1577.945354755378</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.982837814967</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082162</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7649,16 +7649,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>2354.684526795312</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1964.5451948195</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7731,16 +7731,16 @@
         <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
         <v>2525.076107152626</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2305.297090124192</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2077.988902792793</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2022.963088632153</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>2022.963088632153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747075</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11312,10 +11312,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>86.26311576480674</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>280.5961905948486</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22705,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -22768,7 +22768,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>162.0698927825205</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22784,19 +22784,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>130.8675288472114</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22829,28 +22829,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>72.36522936335376</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22960,10 +22960,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,25 +22984,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23024,22 +23024,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>103.8477905115076</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>267.6146332307086</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23075,7 +23075,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23148,7 +23148,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23176,7 +23176,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23185,22 +23185,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>82.85718120047541</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>47.11950384895746</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>97.36773175088385</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23309,10 +23309,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>123.9289676594879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047541</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>45.19995918853699</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049789922</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23674,7 +23674,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>130.3958356744437</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,22 +23729,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>206.9918382582196</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23905,13 +23905,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>72.57258286784689</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>109.7977906470075</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>30.69118209778708</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>12.42908554841733</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24148,7 +24148,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24181,19 +24181,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="23">
@@ -24206,10 +24206,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>58.23741346252854</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24385,7 +24385,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24418,10 +24418,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V25" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24497,7 +24497,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>127.6749024800423</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>155.6309576570396</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24622,7 +24622,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14.65925904419316</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24740,7 +24740,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24859,7 +24859,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24895,16 +24895,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X31" t="n">
-        <v>96.92615468724685</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25096,7 +25096,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25132,16 +25132,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>96.92615468724685</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,19 +25160,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>94.65020610977379</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25315,25 +25315,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>86.05160619575683</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,19 +25391,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>46.51305899272637</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25451,10 +25451,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,19 +25558,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>103.670039652534</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.3197310124843</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25606,7 +25606,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,22 +25625,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>85.84127361338238</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25679,22 +25679,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U43" t="n">
-        <v>202.6835682680295</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,25 +26065,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>231.8063182229436</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.155540182</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="D2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="E2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="F2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="G2" t="n">
         <v>274694.9795149697</v>
@@ -26335,16 +26335,16 @@
         <v>274694.9795149696</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="K2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="L2" t="n">
         <v>274694.9795149696</v>
       </c>
-      <c r="L2" t="n">
-        <v>274694.9795149697</v>
-      </c>
       <c r="M2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="N2" t="n">
         <v>274694.9795149697</v>
@@ -26424,7 +26424,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="E4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
         <v>513.1084990597035</v>
@@ -26457,7 +26457,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
     </row>
     <row r="5">
@@ -26491,7 +26491,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398645.0862620437</v>
+        <v>-398645.0862620439</v>
       </c>
       <c r="C6" t="n">
         <v>191322.7929525007</v>
       </c>
       <c r="D6" t="n">
-        <v>191322.7929525007</v>
+        <v>191322.7929525005</v>
       </c>
       <c r="E6" t="n">
-        <v>224950.3929525005</v>
+        <v>224950.3929525008</v>
       </c>
       <c r="F6" t="n">
-        <v>224950.3929525004</v>
+        <v>224950.3929525007</v>
       </c>
       <c r="G6" t="n">
         <v>224950.3929525006</v>
@@ -26543,16 +26543,16 @@
         <v>224950.3929525004</v>
       </c>
       <c r="J6" t="n">
-        <v>48527.17375990768</v>
+        <v>48527.17375990757</v>
       </c>
       <c r="K6" t="n">
+        <v>224950.3929525006</v>
+      </c>
+      <c r="L6" t="n">
         <v>224950.3929525004</v>
       </c>
-      <c r="L6" t="n">
-        <v>224950.3929525006</v>
-      </c>
       <c r="M6" t="n">
-        <v>224950.3929525007</v>
+        <v>224950.3929525005</v>
       </c>
       <c r="N6" t="n">
         <v>224950.3929525006</v>
@@ -26741,43 +26741,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26811,7 +26811,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31145,10 +31145,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31765,7 +31765,7 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630665</v>
       </c>
       <c r="M11" t="n">
         <v>266.6471645405368</v>
@@ -31841,7 +31841,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31859,7 +31859,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R12" t="n">
         <v>50.44659727034983</v>
@@ -31993,19 +31993,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32020,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32084,7 +32084,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>190.1500580638408</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32169,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32230,19 +32230,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32257,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,19 +32303,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
@@ -32330,22 +32330,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32406,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32467,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32494,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32564,25 +32564,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32643,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32704,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32731,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32798,28 +32798,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O24" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32880,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32941,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32968,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33041,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33117,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33178,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33205,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33354,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33415,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33442,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33591,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,22 +33725,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M36" t="n">
         <v>205.8702969983122</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33889,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,25 +34126,25 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P41" t="n">
         <v>218.3719038954667</v>
@@ -34153,13 +34153,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34302,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,22 +34436,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>132.9984977071302</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
         <v>205.8702969983122</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>54.37527471535575</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435297</v>
       </c>
       <c r="M11" t="n">
         <v>485.8144648060966</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35732,19 +35732,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>513.7210878918224</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35972,13 +35972,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36209,13 +36209,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,13 +36446,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,16 +36683,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36920,13 +36920,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37157,16 +37157,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,13 +37631,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37868,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1117829.467727758</v>
+        <v>1146673.778482486</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108192.5319438355</v>
+        <v>82872.13808297986</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>327.5210542559882</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>22.98569063694849</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -835,7 +837,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>52.10844059186253</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>234.4053629237962</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>59.03226091544995</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1023,7 +1025,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>11.05778639582307</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>278.0825795607541</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>96.95377689311815</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>63.57678144609376</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>226.5550410134733</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -1427,16 +1429,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1455,7 +1457,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.57678144609376</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,10 +1548,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>12.21629914834747</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>339.0399185806816</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1740,7 +1742,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1777,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>17.13267830032973</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1844,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>206.7923317625754</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>115.2373148110768</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>311.4936872159398</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>162.4608466928088</v>
       </c>
     </row>
     <row r="21">
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>218.5035263306621</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>275.4805812731078</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2363,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>36.31606325004098</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>164.1314710794259</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,19 +2560,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>157.6500974904835</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2719,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>89.78463339148489</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>269.5134569480836</v>
+        <v>330.2536583457302</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>122.3623168480194</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>84.95149223441567</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3117,7 +3119,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G33" t="n">
         <v>136.5310119231965</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,19 +3198,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0695714233304</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.06378739765032</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>6.596015618368514</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>81.25819606329408</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>284.5615160058696</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3673,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>35.85115782931089</v>
+        <v>10.10581259942144</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3743,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>376.1848636439243</v>
       </c>
       <c r="G41" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>162.3364906735235</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>236.7139500600953</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.952954307291</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1122.952954307291</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1122.952954307291</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>711.9670495176831</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,34 +4418,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240411</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261307</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644631</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>106.5777702969933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2344.380435748108</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4597,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748108</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y5" t="n">
-        <v>2344.380435748108</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4662,7 +4664,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4671,16 +4673,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>568.8128444327161</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>568.8128444327161</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>568.8128444327161</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>568.8128444327161</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>568.8128444327161</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1490.978909181595</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C8" t="n">
-        <v>1490.978909181595</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D8" t="n">
-        <v>1490.978909181595</v>
+        <v>1520.080031287786</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1134.291778689542</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>723.3058738999346</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>305.3420657981214</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1881.118241157406</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1490.978909181595</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="9">
@@ -4863,19 +4865,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4899,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2224.752638628377</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C11" t="n">
-        <v>1855.790121687965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D11" t="n">
-        <v>1497.524423081215</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E11" t="n">
-        <v>1111.73617048297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F11" t="n">
-        <v>700.7502656933627</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>282.7864575915496</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5039,13 +5041,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.752638628377</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.752638628377</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>2224.752638628377</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y11" t="n">
-        <v>2224.752638628377</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
         <v>505.8730812692495</v>
@@ -5142,19 +5144,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>663.910013048764</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508536</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1577.945354755378</v>
+        <v>1924.457674141023</v>
       </c>
       <c r="C14" t="n">
-        <v>1208.982837814967</v>
+        <v>1555.495157200611</v>
       </c>
       <c r="D14" t="n">
-        <v>850.7171392082162</v>
+        <v>1197.229458593861</v>
       </c>
       <c r="E14" t="n">
-        <v>464.928886609972</v>
+        <v>811.4412059956167</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5276,7 +5278,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733126</v>
@@ -5288,7 +5290,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X14" t="n">
-        <v>2354.684526795312</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y14" t="n">
-        <v>1964.5451948195</v>
+        <v>2311.057514205145</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5391,7 +5393,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>710.8232485495355</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245969</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="T16" t="n">
-        <v>343.1165921657965</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837194</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>743.4848209837926</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>743.4848209837926</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>743.4848209837926</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>743.4848209837926</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F17" t="n">
-        <v>743.4848209837926</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
@@ -5519,7 +5521,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5543,22 +5545,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1893.689751284806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1520.223993023726</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y17" t="n">
-        <v>1130.084661047914</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5695,28 +5697,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406182</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="T19" t="n">
-        <v>463.5809975486215</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="U19" t="n">
-        <v>463.5809975486215</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="V19" t="n">
-        <v>463.5809975486215</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W19" t="n">
-        <v>463.5809975486215</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X19" t="n">
-        <v>235.5914466506042</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y19" t="n">
-        <v>235.5914466506042</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2310.5492509541</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C20" t="n">
-        <v>1941.586734013689</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D20" t="n">
-        <v>1583.321035406938</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E20" t="n">
-        <v>1197.532782808694</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F20" t="n">
-        <v>786.5468780190865</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>368.5830699172734</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036425</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018222</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y20" t="n">
-        <v>2697.149091018222</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5850,28 +5852,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
         <v>53.94298182036445</v>
@@ -5932,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7118141694736</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X22" t="n">
-        <v>210.7222632714563</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
         <v>882.8926947117852</v>
@@ -5990,16 +5992,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424003</v>
@@ -6066,25 +6068,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6105,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036445</v>
@@ -6151,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>562.3396194797416</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>562.3396194797416</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>562.3396194797416</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>562.3396194797416</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.915471247702</v>
+        <v>940.4137200851867</v>
       </c>
       <c r="C26" t="n">
-        <v>1122.952954307291</v>
+        <v>571.451203144775</v>
       </c>
       <c r="D26" t="n">
-        <v>1122.952954307291</v>
+        <v>213.1855045380245</v>
       </c>
       <c r="E26" t="n">
-        <v>737.1647017090463</v>
+        <v>213.1855045380245</v>
       </c>
       <c r="F26" t="n">
-        <v>326.1787969194388</v>
+        <v>213.1855045380245</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>213.1855045380245</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
@@ -6242,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.654643287636</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.515311311824</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6302,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>184.0273259635867</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247702</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C29" t="n">
-        <v>1122.952954307291</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D29" t="n">
-        <v>1122.952954307291</v>
+        <v>798.518440494548</v>
       </c>
       <c r="E29" t="n">
-        <v>737.1647017090463</v>
+        <v>798.518440494548</v>
       </c>
       <c r="F29" t="n">
-        <v>326.1787969194388</v>
+        <v>387.5325357049405</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6479,10 +6481,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6500,13 +6502,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.515311311824</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6539,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W31" t="n">
-        <v>502.7251118619119</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X31" t="n">
-        <v>274.7355609638946</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776797</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785532</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889456</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6716,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2611.339502902651</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2258.570847632537</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>1885.105089371457</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1494.965757395646</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961344</v>
@@ -6774,16 +6776,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M33" t="n">
         <v>1194.968834417902</v>
@@ -6822,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.69838933464703</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>2372.695565808119</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.948523966371</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.948523966371</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="X34" t="n">
-        <v>500.1394333084169</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="Y34" t="n">
-        <v>279.3468541648867</v>
+        <v>2519.585513306029</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776797</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.981643776797</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1933911785532</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>381.2074863889456</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2675.872538091303</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2675.872538091303</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7020,13 +7022,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
         <v>2188.831293537797</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="C37" t="n">
-        <v>728.1289842064342</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="D37" t="n">
-        <v>578.0123447940985</v>
+        <v>2029.625730670909</v>
       </c>
       <c r="E37" t="n">
-        <v>430.0992512117053</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>430.0992512117053</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>2179.742370083245</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1865.381229508782</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C38" t="n">
-        <v>1496.41871256837</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D38" t="n">
-        <v>1138.15301396162</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E38" t="n">
-        <v>752.3647613633757</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F38" t="n">
-        <v>341.3788565737681</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7190,10 +7192,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
         <v>2642.120401548716</v>
@@ -7214,10 +7216,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>2642.120401548716</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>2251.981069572904</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7250,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
         <v>2525.076107152626</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2228.176179630498</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="C40" t="n">
-        <v>2228.176179630498</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="D40" t="n">
-        <v>2228.176179630498</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="E40" t="n">
-        <v>2228.176179630498</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="F40" t="n">
-        <v>2228.176179630498</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="G40" t="n">
-        <v>2059.176379368831</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>2204.948523966371</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J40" t="n">
         <v>2022.963088632153</v>
@@ -7336,46 +7338,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>2482.860667836385</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>2482.860667836385</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="U40" t="n">
-        <v>2482.860667836385</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="V40" t="n">
-        <v>2228.176179630498</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="W40" t="n">
-        <v>2228.176179630498</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="X40" t="n">
-        <v>2228.176179630498</v>
+        <v>2215.156415480938</v>
       </c>
       <c r="Y40" t="n">
-        <v>2228.176179630498</v>
+        <v>2215.156415480938</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247702</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.952954307291</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E41" t="n">
-        <v>737.1647017090463</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1787969194388</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7427,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7487,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259437</v>
       </c>
     </row>
     <row r="44">
@@ -7652,13 +7654,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7725,22 +7727,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
         <v>2525.076107152626</v>
@@ -7831,22 +7833,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y46" t="n">
         <v>53.94298182036445</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>86.26311576480674</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>85.98948845797281</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>125.6297823812639</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22723,10 +22725,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>82.85718120047571</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>130.8675288472114</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22799,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,22 +22837,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>268.7199975546849</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22957,10 +22959,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -22987,16 +22989,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>213.9773190622612</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23008,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23021,13 +23023,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>103.8477905115076</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23036,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>226.968995871239</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,13 +23074,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23185,19 +23187,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>82.85718120047541</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>97.36773175088385</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>82.85718120047541</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>394.659746593364</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23552,16 +23554,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>30.69118209778748</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>11.99007165458458</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>56.01837628787189</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>206.9918382582196</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.59905862404024</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>109.7977906470075</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23950,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>12.42908554841733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24023,19 +24025,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>223.7770919632448</v>
       </c>
     </row>
     <row r="21">
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>45.199959188537</v>
@@ -24172,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>7.206129058375069</v>
       </c>
       <c r="Y22" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>89.79231049789979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24251,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>333.415037428428</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24418,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>88.00617224440211</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24446,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>166.2726752738737</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24497,13 +24499,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>56.64932925508428</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,13 +24618,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24658,13 +24660,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>144.2707130727114</v>
+        <v>83.53051167506476</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24859,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>89.78322210199953</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24920,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24974,10 +24976,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>242.8007662357192</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,19 +25086,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>1.240230835720524</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25138,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,19 +25210,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>230.160380110639</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25318,22 +25320,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>139.8379470282007</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>86.05160619575683</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25372,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25394,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>129.2226540149254</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>120.3197310124843</v>
+        <v>146.0650762423737</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25631,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>30.69118209778713</v>
       </c>
       <c r="G41" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841384</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25807,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>56.01837628787189</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26071,25 +26073,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>49.5679241818824</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
   </sheetData>
@@ -26320,19 +26322,19 @@
         <v>274694.9795149697</v>
       </c>
       <c r="E2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="F2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="G2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="H2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="H2" t="n">
-        <v>274694.9795149696</v>
-      </c>
       <c r="I2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="J2" t="n">
         <v>274694.9795149697</v>
@@ -26341,10 +26343,10 @@
         <v>274694.9795149697</v>
       </c>
       <c r="L2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="N2" t="n">
         <v>274694.9795149697</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26439,25 +26441,25 @@
         <v>513.1084990597035</v>
       </c>
       <c r="J4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="L4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="O4" t="n">
+        <v>513.1084990597036</v>
+      </c>
+      <c r="P4" t="n">
         <v>513.1084990597035</v>
-      </c>
-      <c r="P4" t="n">
-        <v>513.1084990597036</v>
       </c>
     </row>
     <row r="5">
@@ -26491,22 +26493,22 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26525,40 +26527,40 @@
         <v>191322.7929525007</v>
       </c>
       <c r="D6" t="n">
-        <v>191322.7929525005</v>
+        <v>191322.7929525006</v>
       </c>
       <c r="E6" t="n">
-        <v>224950.3929525008</v>
+        <v>224950.3929525006</v>
       </c>
       <c r="F6" t="n">
+        <v>224950.3929525006</v>
+      </c>
+      <c r="G6" t="n">
+        <v>224950.3929525005</v>
+      </c>
+      <c r="H6" t="n">
+        <v>224950.3929525006</v>
+      </c>
+      <c r="I6" t="n">
         <v>224950.3929525007</v>
       </c>
-      <c r="G6" t="n">
-        <v>224950.3929525006</v>
-      </c>
-      <c r="H6" t="n">
-        <v>224950.3929525004</v>
-      </c>
-      <c r="I6" t="n">
-        <v>224950.3929525004</v>
-      </c>
       <c r="J6" t="n">
-        <v>48527.17375990757</v>
+        <v>48527.17375990753</v>
       </c>
       <c r="K6" t="n">
         <v>224950.3929525006</v>
       </c>
       <c r="L6" t="n">
-        <v>224950.3929525004</v>
+        <v>224950.3929525005</v>
       </c>
       <c r="M6" t="n">
+        <v>224950.3929525008</v>
+      </c>
+      <c r="N6" t="n">
         <v>224950.3929525005</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>224950.3929525006</v>
-      </c>
-      <c r="O6" t="n">
-        <v>224950.3929525007</v>
       </c>
       <c r="P6" t="n">
         <v>224950.3929525006</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26746,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26756,25 +26758,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26802,7 +26804,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26811,22 +26813,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,7 +31138,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31382,10 +31384,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31619,7 +31621,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
@@ -31750,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630665</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>60.29709682323505</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M15" t="n">
         <v>205.8702969983122</v>
@@ -32099,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
@@ -32327,25 +32329,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578339</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32549,7 +32551,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32564,7 +32566,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479577</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32798,28 +32800,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L33" t="n">
         <v>176.4169820478007</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M36" t="n">
         <v>205.8702969983122</v>
@@ -33749,25 +33751,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392718</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33986,25 +33988,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923047</v>
+        <v>149.897181251634</v>
       </c>
       <c r="P39" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,25 +34128,25 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
         <v>218.3719038954667</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435297</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35498,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
@@ -35738,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35975,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901189</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36212,7 +36214,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37157,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,13 +37633,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P39" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37868,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38035,7 +38037,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38111,7 +38113,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
